--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pdgfc-Pdgfra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pdgfc-Pdgfra.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1155516666666667</v>
+        <v>0.1355026666666667</v>
       </c>
       <c r="H2">
-        <v>0.346655</v>
+        <v>0.406508</v>
       </c>
       <c r="I2">
-        <v>0.007028978357547423</v>
+        <v>0.006779705849445943</v>
       </c>
       <c r="J2">
-        <v>0.00725187926921692</v>
+        <v>0.007463029083467004</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8475826666666667</v>
+        <v>0.7654436666666667</v>
       </c>
       <c r="N2">
-        <v>2.542748</v>
+        <v>2.296331</v>
       </c>
       <c r="O2">
-        <v>0.00510369540012338</v>
+        <v>0.004635878353392074</v>
       </c>
       <c r="P2">
-        <v>0.005118348529504506</v>
+        <v>0.004639465203339198</v>
       </c>
       <c r="Q2">
-        <v>0.09793958977111111</v>
+        <v>0.1037196580164444</v>
       </c>
       <c r="R2">
-        <v>0.88145630794</v>
+        <v>0.933476922148</v>
       </c>
       <c r="S2">
-        <v>3.587376451098157E-05</v>
+        <v>3.142989158981207E-05</v>
       </c>
       <c r="T2">
-        <v>3.711764559374063E-05</v>
+        <v>3.462446374425359E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1155516666666667</v>
+        <v>0.1355026666666667</v>
       </c>
       <c r="H3">
-        <v>0.346655</v>
+        <v>0.406508</v>
       </c>
       <c r="I3">
-        <v>0.007028978357547423</v>
+        <v>0.006779705849445943</v>
       </c>
       <c r="J3">
-        <v>0.00725187926921692</v>
+        <v>0.007463029083467004</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>491.042579</v>
       </c>
       <c r="O3">
-        <v>0.9855997337160513</v>
+        <v>0.9913264518834251</v>
       </c>
       <c r="P3">
-        <v>0.9884294716380667</v>
+        <v>0.9920934563128917</v>
       </c>
       <c r="Q3">
-        <v>18.91359613591611</v>
+        <v>22.17919296712578</v>
       </c>
       <c r="R3">
-        <v>170.222365223245</v>
+        <v>199.612736704132</v>
       </c>
       <c r="S3">
-        <v>0.006927759197494628</v>
+        <v>0.006720901744544549</v>
       </c>
       <c r="T3">
-        <v>0.007167971194455129</v>
+        <v>0.007404022317980412</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1155516666666667</v>
+        <v>0.1355026666666667</v>
       </c>
       <c r="H4">
-        <v>0.346655</v>
+        <v>0.406508</v>
       </c>
       <c r="I4">
-        <v>0.007028978357547423</v>
+        <v>0.006779705849445943</v>
       </c>
       <c r="J4">
-        <v>0.00725187926921692</v>
+        <v>0.007463029083467004</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.05170233333333333</v>
+        <v>0.1554443333333333</v>
       </c>
       <c r="N4">
-        <v>0.155107</v>
+        <v>0.466333</v>
       </c>
       <c r="O4">
-        <v>0.0003113241589126949</v>
+        <v>0.0009414422660201798</v>
       </c>
       <c r="P4">
-        <v>0.0003122179961859592</v>
+        <v>0.000942170674292503</v>
       </c>
       <c r="Q4">
-        <v>0.005974290787222222</v>
+        <v>0.02106312168488889</v>
       </c>
       <c r="R4">
-        <v>0.053768617085</v>
+        <v>0.189568095164</v>
       </c>
       <c r="S4">
-        <v>2.188290775178987E-06</v>
+        <v>6.382701637852656E-06</v>
       </c>
       <c r="T4">
-        <v>2.264167214017405E-06</v>
+        <v>7.031447143834668E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1155516666666667</v>
+        <v>0.1355026666666667</v>
       </c>
       <c r="H5">
-        <v>0.346655</v>
+        <v>0.406508</v>
       </c>
       <c r="I5">
-        <v>0.007028978357547423</v>
+        <v>0.006779705849445943</v>
       </c>
       <c r="J5">
-        <v>0.00725187926921692</v>
+        <v>0.007463029083467004</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.426327</v>
+        <v>0.382955</v>
       </c>
       <c r="N5">
-        <v>2.852654</v>
+        <v>0.7659100000000001</v>
       </c>
       <c r="O5">
-        <v>0.008588588270216057</v>
+        <v>0.002319351341104477</v>
       </c>
       <c r="P5">
-        <v>0.005742164542489129</v>
+        <v>0.001547430572460819</v>
       </c>
       <c r="Q5">
-        <v>0.1648144620616666</v>
+        <v>0.05189142371333334</v>
       </c>
       <c r="R5">
-        <v>0.9888867723699999</v>
+        <v>0.31134854228</v>
       </c>
       <c r="S5">
-        <v>6.036900107323433E-05</v>
+        <v>1.572451985420631E-05</v>
       </c>
       <c r="T5">
-        <v>4.164148400610938E-05</v>
+        <v>1.154851936692109E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.1155516666666667</v>
+        <v>0.1355026666666667</v>
       </c>
       <c r="H6">
-        <v>0.346655</v>
+        <v>0.406508</v>
       </c>
       <c r="I6">
-        <v>0.007028978357547423</v>
+        <v>0.006779705849445943</v>
       </c>
       <c r="J6">
-        <v>0.00725187926921692</v>
+        <v>0.007463029083467004</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.065874</v>
+        <v>0.1282723333333333</v>
       </c>
       <c r="N6">
-        <v>0.197622</v>
+        <v>0.384817</v>
       </c>
       <c r="O6">
-        <v>0.0003966584546967229</v>
+        <v>0.0007768761560581979</v>
       </c>
       <c r="P6">
-        <v>0.0003977972937537418</v>
+        <v>0.0007774772370156479</v>
       </c>
       <c r="Q6">
-        <v>0.00761185049</v>
+        <v>0.01738124322622222</v>
       </c>
       <c r="R6">
-        <v>0.06850665440999999</v>
+        <v>0.156431189036</v>
       </c>
       <c r="S6">
-        <v>2.78810369340147E-06</v>
+        <v>5.266991819522843E-06</v>
       </c>
       <c r="T6">
-        <v>2.884777947923354E-06</v>
+        <v>5.802335231581349E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>14.229332</v>
       </c>
       <c r="I7">
-        <v>0.2885222098927089</v>
+        <v>0.2373155888546064</v>
       </c>
       <c r="J7">
-        <v>0.2976717420651799</v>
+        <v>0.2612345108935315</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8475826666666667</v>
+        <v>0.7654436666666667</v>
       </c>
       <c r="N7">
-        <v>2.542748</v>
+        <v>2.296331</v>
       </c>
       <c r="O7">
-        <v>0.00510369540012338</v>
+        <v>0.004635878353392074</v>
       </c>
       <c r="P7">
-        <v>0.005118348529504506</v>
+        <v>0.004639465203339198</v>
       </c>
       <c r="Q7">
-        <v>4.020178387148444</v>
+        <v>3.630584020099112</v>
       </c>
       <c r="R7">
-        <v>36.181605484336</v>
+        <v>32.67525618089201</v>
       </c>
       <c r="S7">
-        <v>0.001472529475462851</v>
+        <v>0.001100166201293563</v>
       </c>
       <c r="T7">
-        <v>0.001523587723274358</v>
+        <v>0.001211988423201874</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>14.229332</v>
       </c>
       <c r="I8">
-        <v>0.2885222098927089</v>
+        <v>0.2373155888546064</v>
       </c>
       <c r="J8">
-        <v>0.2976717420651799</v>
+        <v>0.2612345108935315</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>491.042579</v>
       </c>
       <c r="O8">
-        <v>0.9855997337160513</v>
+        <v>0.9913264518834251</v>
       </c>
       <c r="P8">
-        <v>0.9884294716380667</v>
+        <v>0.9920934563128917</v>
       </c>
       <c r="Q8">
         <v>776.3564314141365</v>
@@ -948,10 +948,10 @@
         <v>6987.207882727228</v>
       </c>
       <c r="S8">
-        <v>0.2843674132414205</v>
+        <v>0.2352572206758627</v>
       </c>
       <c r="T8">
-        <v>0.2942275227310686</v>
+        <v>0.2591690488205714</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>14.229332</v>
       </c>
       <c r="I9">
-        <v>0.2885222098927089</v>
+        <v>0.2373155888546064</v>
       </c>
       <c r="J9">
-        <v>0.2976717420651799</v>
+        <v>0.2612345108935315</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.05170233333333333</v>
+        <v>0.1554443333333333</v>
       </c>
       <c r="N9">
-        <v>0.155107</v>
+        <v>0.466333</v>
       </c>
       <c r="O9">
-        <v>0.0003113241589126949</v>
+        <v>0.0009414422660201798</v>
       </c>
       <c r="P9">
-        <v>0.0003122179961859592</v>
+        <v>0.000942170674292503</v>
       </c>
       <c r="Q9">
-        <v>0.2452298887248889</v>
+        <v>0.7372896755062222</v>
       </c>
       <c r="R9">
-        <v>2.207068998524</v>
+        <v>6.635607079555999</v>
       </c>
       <c r="S9">
-        <v>8.982393432247961E-05</v>
+        <v>0.000223418925733194</v>
       </c>
       <c r="T9">
-        <v>9.293847482877417E-05</v>
+        <v>0.0002461274952770308</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>14.229332</v>
       </c>
       <c r="I10">
-        <v>0.2885222098927089</v>
+        <v>0.2373155888546064</v>
       </c>
       <c r="J10">
-        <v>0.2976717420651799</v>
+        <v>0.2612345108935315</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.426327</v>
+        <v>0.382955</v>
       </c>
       <c r="N10">
-        <v>2.852654</v>
+        <v>0.7659100000000001</v>
       </c>
       <c r="O10">
-        <v>0.008588588270216057</v>
+        <v>0.002319351341104477</v>
       </c>
       <c r="P10">
-        <v>0.005742164542489129</v>
+        <v>0.001547430572460819</v>
       </c>
       <c r="Q10">
-        <v>6.765226807854666</v>
+        <v>1.816397945353333</v>
       </c>
       <c r="R10">
-        <v>40.59136084712799</v>
+        <v>10.89838767212</v>
       </c>
       <c r="S10">
-        <v>0.002477998467581335</v>
+        <v>0.0005504182292749301</v>
       </c>
       <c r="T10">
-        <v>0.001709280122587646</v>
+        <v>0.0004042422687384995</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>14.229332</v>
       </c>
       <c r="I11">
-        <v>0.2885222098927089</v>
+        <v>0.2373155888546064</v>
       </c>
       <c r="J11">
-        <v>0.2976717420651799</v>
+        <v>0.2612345108935315</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.065874</v>
+        <v>0.1282723333333333</v>
       </c>
       <c r="N11">
-        <v>0.197622</v>
+        <v>0.384817</v>
       </c>
       <c r="O11">
-        <v>0.0003966584546967229</v>
+        <v>0.0007768761560581979</v>
       </c>
       <c r="P11">
-        <v>0.0003977972937537418</v>
+        <v>0.0007774772370156479</v>
       </c>
       <c r="Q11">
-        <v>0.312447672056</v>
+        <v>0.6084098724715556</v>
       </c>
       <c r="R11">
-        <v>2.812029048504</v>
+        <v>5.475688852244</v>
       </c>
       <c r="S11">
-        <v>0.0001144447739217254</v>
+        <v>0.0001843648224420543</v>
       </c>
       <c r="T11">
-        <v>0.0001184130134204904</v>
+        <v>0.0002031038857426371</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.572895666666668</v>
+        <v>2.010037666666667</v>
       </c>
       <c r="H12">
-        <v>16.718687</v>
+        <v>6.030113</v>
       </c>
       <c r="I12">
-        <v>0.3389978194158731</v>
+        <v>0.1005697117373337</v>
       </c>
       <c r="J12">
-        <v>0.349748019396306</v>
+        <v>0.1107060837562667</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8475826666666667</v>
+        <v>0.7654436666666667</v>
       </c>
       <c r="N12">
-        <v>2.542748</v>
+        <v>2.296331</v>
       </c>
       <c r="O12">
-        <v>0.00510369540012338</v>
+        <v>0.004635878353392074</v>
       </c>
       <c r="P12">
-        <v>0.005118348529504506</v>
+        <v>0.004639465203339198</v>
       </c>
       <c r="Q12">
-        <v>4.723489770208445</v>
+        <v>1.538570601711445</v>
       </c>
       <c r="R12">
-        <v>42.51140793187601</v>
+        <v>13.847135415403</v>
       </c>
       <c r="S12">
-        <v>0.001730141611604648</v>
+        <v>0.0004662289496499859</v>
       </c>
       <c r="T12">
-        <v>0.001790132260774196</v>
+        <v>0.0005136170233851542</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.572895666666668</v>
+        <v>2.010037666666667</v>
       </c>
       <c r="H13">
-        <v>16.718687</v>
+        <v>6.030113</v>
       </c>
       <c r="I13">
-        <v>0.3389978194158731</v>
+        <v>0.1005697117373337</v>
       </c>
       <c r="J13">
-        <v>0.349748019396306</v>
+        <v>0.1107060837562667</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>491.042579</v>
       </c>
       <c r="O13">
-        <v>0.9855997337160513</v>
+        <v>0.9913264518834251</v>
       </c>
       <c r="P13">
-        <v>0.9884294716380667</v>
+        <v>0.9920934563128917</v>
       </c>
       <c r="Q13">
-        <v>912.1763535526418</v>
+        <v>329.0046932423809</v>
       </c>
       <c r="R13">
-        <v>8209.587181973775</v>
+        <v>2961.042239181427</v>
       </c>
       <c r="S13">
-        <v>0.3341161605466065</v>
+        <v>0.09969741550350983</v>
       </c>
       <c r="T13">
-        <v>0.345701250018351</v>
+        <v>0.1098307812686191</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.572895666666668</v>
+        <v>2.010037666666667</v>
       </c>
       <c r="H14">
-        <v>16.718687</v>
+        <v>6.030113</v>
       </c>
       <c r="I14">
-        <v>0.3389978194158731</v>
+        <v>0.1005697117373337</v>
       </c>
       <c r="J14">
-        <v>0.349748019396306</v>
+        <v>0.1107060837562667</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.05170233333333333</v>
+        <v>0.1554443333333333</v>
       </c>
       <c r="N14">
-        <v>0.155107</v>
+        <v>0.466333</v>
       </c>
       <c r="O14">
-        <v>0.0003113241589126949</v>
+        <v>0.0009414422660201798</v>
       </c>
       <c r="P14">
-        <v>0.0003122179961859592</v>
+        <v>0.000942170674292503</v>
       </c>
       <c r="Q14">
-        <v>0.2881317093898889</v>
+        <v>0.3124489650698889</v>
       </c>
       <c r="R14">
-        <v>2.593185384509</v>
+        <v>2.812040685629</v>
       </c>
       <c r="S14">
-        <v>0.0001055382110028843</v>
+        <v>9.468057731099166E-05</v>
       </c>
       <c r="T14">
-        <v>0.0001091976257859227</v>
+        <v>0.0001043040255809241</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.572895666666668</v>
+        <v>2.010037666666667</v>
       </c>
       <c r="H15">
-        <v>16.718687</v>
+        <v>6.030113</v>
       </c>
       <c r="I15">
-        <v>0.3389978194158731</v>
+        <v>0.1005697117373337</v>
       </c>
       <c r="J15">
-        <v>0.349748019396306</v>
+        <v>0.1107060837562667</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.426327</v>
+        <v>0.382955</v>
       </c>
       <c r="N15">
-        <v>2.852654</v>
+        <v>0.7659100000000001</v>
       </c>
       <c r="O15">
-        <v>0.008588588270216057</v>
+        <v>0.002319351341104477</v>
       </c>
       <c r="P15">
-        <v>0.005742164542489129</v>
+        <v>0.001547430572460819</v>
       </c>
       <c r="Q15">
-        <v>7.948771557549668</v>
+        <v>0.7697539746383335</v>
       </c>
       <c r="R15">
-        <v>47.692629345298</v>
+        <v>4.618523847830001</v>
       </c>
       <c r="S15">
-        <v>0.002911512695463989</v>
+        <v>0.0002332564957924755</v>
       </c>
       <c r="T15">
-        <v>0.002008310675783268</v>
+        <v>0.0001713099785618552</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.572895666666668</v>
+        <v>2.010037666666667</v>
       </c>
       <c r="H16">
-        <v>16.718687</v>
+        <v>6.030113</v>
       </c>
       <c r="I16">
-        <v>0.3389978194158731</v>
+        <v>0.1005697117373337</v>
       </c>
       <c r="J16">
-        <v>0.349748019396306</v>
+        <v>0.1107060837562667</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.065874</v>
+        <v>0.1282723333333333</v>
       </c>
       <c r="N16">
-        <v>0.197622</v>
+        <v>0.384817</v>
       </c>
       <c r="O16">
-        <v>0.0003966584546967229</v>
+        <v>0.0007768761560581979</v>
       </c>
       <c r="P16">
-        <v>0.0003977972937537418</v>
+        <v>0.0007774772370156479</v>
       </c>
       <c r="Q16">
-        <v>0.3671089291460001</v>
+        <v>0.2578322215912223</v>
       </c>
       <c r="R16">
-        <v>3.303980362314</v>
+        <v>2.320489994321</v>
       </c>
       <c r="S16">
-        <v>0.0001344663511950589</v>
+        <v>7.813021107038079E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001391288156115817</v>
+        <v>8.607146011964515E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.515886</v>
+        <v>5.4899615</v>
       </c>
       <c r="H17">
-        <v>3.031772</v>
+        <v>10.979923</v>
       </c>
       <c r="I17">
-        <v>0.09221095804049387</v>
+        <v>0.2746833328848364</v>
       </c>
       <c r="J17">
-        <v>0.06342341669900138</v>
+        <v>0.2015790210358179</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.8475826666666667</v>
+        <v>0.7654436666666667</v>
       </c>
       <c r="N17">
-        <v>2.542748</v>
+        <v>2.296331</v>
       </c>
       <c r="O17">
-        <v>0.00510369540012338</v>
+        <v>0.004635878353392074</v>
       </c>
       <c r="P17">
-        <v>0.005118348529504506</v>
+        <v>0.004639465203339198</v>
       </c>
       <c r="Q17">
-        <v>1.284838698242667</v>
+        <v>4.202256260418833</v>
       </c>
       <c r="R17">
-        <v>7.709032189456001</v>
+        <v>25.213537562513</v>
       </c>
       <c r="S17">
-        <v>0.0004706166423922386</v>
+        <v>0.001273398516958402</v>
       </c>
       <c r="T17">
-        <v>0.0003246231515974853</v>
+        <v>0.0009352188538188574</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.515886</v>
+        <v>5.4899615</v>
       </c>
       <c r="H18">
-        <v>3.031772</v>
+        <v>10.979923</v>
       </c>
       <c r="I18">
-        <v>0.09221095804049387</v>
+        <v>0.2746833328848364</v>
       </c>
       <c r="J18">
-        <v>0.06342341669900138</v>
+        <v>0.2015790210358179</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>491.042579</v>
       </c>
       <c r="O18">
-        <v>0.9855997337160513</v>
+        <v>0.9913264518834251</v>
       </c>
       <c r="P18">
-        <v>0.9884294716380667</v>
+        <v>0.9920934563128917</v>
       </c>
       <c r="Q18">
-        <v>248.1215236366647</v>
+        <v>898.601617856903</v>
       </c>
       <c r="R18">
-        <v>1488.729141819988</v>
+        <v>5391.609707141417</v>
       </c>
       <c r="S18">
-        <v>0.09088309569041274</v>
+        <v>0.2723008537802385</v>
       </c>
       <c r="T18">
-        <v>0.06268957425727487</v>
+        <v>0.1999852276995937</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.515886</v>
+        <v>5.4899615</v>
       </c>
       <c r="H19">
-        <v>3.031772</v>
+        <v>10.979923</v>
       </c>
       <c r="I19">
-        <v>0.09221095804049387</v>
+        <v>0.2746833328848364</v>
       </c>
       <c r="J19">
-        <v>0.06342341669900138</v>
+        <v>0.2015790210358179</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.05170233333333333</v>
+        <v>0.1554443333333333</v>
       </c>
       <c r="N19">
-        <v>0.155107</v>
+        <v>0.466333</v>
       </c>
       <c r="O19">
-        <v>0.0003113241589126949</v>
+        <v>0.0009414422660201798</v>
       </c>
       <c r="P19">
-        <v>0.0003122179961859592</v>
+        <v>0.000942170674292503</v>
       </c>
       <c r="Q19">
-        <v>0.07837484326733334</v>
+        <v>0.8533834053931666</v>
       </c>
       <c r="R19">
-        <v>0.470249059604</v>
+        <v>5.120300432359</v>
       </c>
       <c r="S19">
-        <v>2.870749895449055E-05</v>
+        <v>0.0002585984993490757</v>
       </c>
       <c r="T19">
-        <v>1.980193207302932E-05</v>
+        <v>0.0001899218421725392</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.515886</v>
+        <v>5.4899615</v>
       </c>
       <c r="H20">
-        <v>3.031772</v>
+        <v>10.979923</v>
       </c>
       <c r="I20">
-        <v>0.09221095804049387</v>
+        <v>0.2746833328848364</v>
       </c>
       <c r="J20">
-        <v>0.06342341669900138</v>
+        <v>0.2015790210358179</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.426327</v>
+        <v>0.382955</v>
       </c>
       <c r="N20">
-        <v>2.852654</v>
+        <v>0.7659100000000001</v>
       </c>
       <c r="O20">
-        <v>0.008588588270216057</v>
+        <v>0.002319351341104477</v>
       </c>
       <c r="P20">
-        <v>0.005742164542489129</v>
+        <v>0.001547430572460819</v>
       </c>
       <c r="Q20">
-        <v>2.162149130722</v>
+        <v>2.1024082062325</v>
       </c>
       <c r="R20">
-        <v>8.648596522887999</v>
+        <v>8.40963282493</v>
       </c>
       <c r="S20">
-        <v>0.0007919619526119706</v>
+        <v>0.0006370871565054928</v>
       </c>
       <c r="T20">
-        <v>0.0003641876945325187</v>
+        <v>0.0003119295399175472</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.515886</v>
+        <v>5.4899615</v>
       </c>
       <c r="H21">
-        <v>3.031772</v>
+        <v>10.979923</v>
       </c>
       <c r="I21">
-        <v>0.09221095804049387</v>
+        <v>0.2746833328848364</v>
       </c>
       <c r="J21">
-        <v>0.06342341669900138</v>
+        <v>0.2015790210358179</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.065874</v>
+        <v>0.1282723333333333</v>
       </c>
       <c r="N21">
-        <v>0.197622</v>
+        <v>0.384817</v>
       </c>
       <c r="O21">
-        <v>0.0003966584546967229</v>
+        <v>0.0007768761560581979</v>
       </c>
       <c r="P21">
-        <v>0.0003977972937537418</v>
+        <v>0.0007774772370156479</v>
       </c>
       <c r="Q21">
-        <v>0.09985747436400001</v>
+        <v>0.7042101715151667</v>
       </c>
       <c r="R21">
-        <v>0.599144846184</v>
+        <v>4.225261029091</v>
       </c>
       <c r="S21">
-        <v>3.657625612244665E-05</v>
+        <v>0.0002133949317848261</v>
       </c>
       <c r="T21">
-        <v>2.522966352347863E-05</v>
+        <v>0.0001567231003152469</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>4.491881999999999</v>
+        <v>7.607898666666666</v>
       </c>
       <c r="H22">
-        <v>13.475646</v>
+        <v>22.823696</v>
       </c>
       <c r="I22">
-        <v>0.2732400342933767</v>
+        <v>0.3806516606737776</v>
       </c>
       <c r="J22">
-        <v>0.2819049425702959</v>
+        <v>0.4190173552309168</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.8475826666666667</v>
+        <v>0.7654436666666667</v>
       </c>
       <c r="N22">
-        <v>2.542748</v>
+        <v>2.296331</v>
       </c>
       <c r="O22">
-        <v>0.00510369540012338</v>
+        <v>0.004635878353392074</v>
       </c>
       <c r="P22">
-        <v>0.005118348529504506</v>
+        <v>0.004639465203339198</v>
       </c>
       <c r="Q22">
-        <v>3.807241323912</v>
+        <v>5.823417851041778</v>
       </c>
       <c r="R22">
-        <v>34.265171915208</v>
+        <v>52.410760659376</v>
       </c>
       <c r="S22">
-        <v>0.001394533906152661</v>
+        <v>0.001764654793900311</v>
       </c>
       <c r="T22">
-        <v>0.001442887748264726</v>
+        <v>0.001944016439189058</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>4.491881999999999</v>
+        <v>7.607898666666666</v>
       </c>
       <c r="H23">
-        <v>13.475646</v>
+        <v>22.823696</v>
       </c>
       <c r="I23">
-        <v>0.2732400342933767</v>
+        <v>0.3806516606737776</v>
       </c>
       <c r="J23">
-        <v>0.2819049425702959</v>
+        <v>0.4190173552309168</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>491.042579</v>
       </c>
       <c r="O23">
-        <v>0.9855997337160513</v>
+        <v>0.9913264518834251</v>
       </c>
       <c r="P23">
-        <v>0.9884294716380667</v>
+        <v>0.9920934563128917</v>
       </c>
       <c r="Q23">
-        <v>735.2351072812261</v>
+        <v>1245.267394016887</v>
       </c>
       <c r="R23">
-        <v>6617.115965531034</v>
+        <v>11207.40654615198</v>
       </c>
       <c r="S23">
-        <v>0.2693053050401167</v>
+        <v>0.3773500601792694</v>
       </c>
       <c r="T23">
-        <v>0.2786431534369171</v>
+        <v>0.4157043762061269</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>4.491881999999999</v>
+        <v>7.607898666666666</v>
       </c>
       <c r="H24">
-        <v>13.475646</v>
+        <v>22.823696</v>
       </c>
       <c r="I24">
-        <v>0.2732400342933767</v>
+        <v>0.3806516606737776</v>
       </c>
       <c r="J24">
-        <v>0.2819049425702959</v>
+        <v>0.4190173552309168</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.05170233333333333</v>
+        <v>0.1554443333333333</v>
       </c>
       <c r="N24">
-        <v>0.155107</v>
+        <v>0.466333</v>
       </c>
       <c r="O24">
-        <v>0.0003113241589126949</v>
+        <v>0.0009414422660201798</v>
       </c>
       <c r="P24">
-        <v>0.0003122179961859592</v>
+        <v>0.000942170674292503</v>
       </c>
       <c r="Q24">
-        <v>0.232240780458</v>
+        <v>1.182604736307555</v>
       </c>
       <c r="R24">
-        <v>2.090167024122</v>
+        <v>10.643442626768</v>
       </c>
       <c r="S24">
-        <v>8.50662238576614E-05</v>
+        <v>0.0003583615619890657</v>
       </c>
       <c r="T24">
-        <v>8.801579628421569E-05</v>
+        <v>0.0003947858641181741</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>4.491881999999999</v>
+        <v>7.607898666666666</v>
       </c>
       <c r="H25">
-        <v>13.475646</v>
+        <v>22.823696</v>
       </c>
       <c r="I25">
-        <v>0.2732400342933767</v>
+        <v>0.3806516606737776</v>
       </c>
       <c r="J25">
-        <v>0.2819049425702959</v>
+        <v>0.4190173552309168</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.426327</v>
+        <v>0.382955</v>
       </c>
       <c r="N25">
-        <v>2.852654</v>
+        <v>0.7659100000000001</v>
       </c>
       <c r="O25">
-        <v>0.008588588270216057</v>
+        <v>0.002319351341104477</v>
       </c>
       <c r="P25">
-        <v>0.005742164542489129</v>
+        <v>0.001547430572460819</v>
       </c>
       <c r="Q25">
-        <v>6.406892577413998</v>
+        <v>2.913482833893334</v>
       </c>
       <c r="R25">
-        <v>38.441355464484</v>
+        <v>17.48089700336</v>
       </c>
       <c r="S25">
-        <v>0.002346746153485528</v>
+        <v>0.0008828649396773724</v>
       </c>
       <c r="T25">
-        <v>0.001618744565579587</v>
+        <v>0.0006484002658759958</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>7.607898666666666</v>
+      </c>
+      <c r="H26">
+        <v>22.823696</v>
+      </c>
+      <c r="I26">
+        <v>0.3806516606737776</v>
+      </c>
+      <c r="J26">
+        <v>0.4190173552309168</v>
+      </c>
+      <c r="K26">
         <v>2</v>
       </c>
-      <c r="F26">
+      <c r="L26">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G26">
-        <v>4.491881999999999</v>
-      </c>
-      <c r="H26">
-        <v>13.475646</v>
-      </c>
-      <c r="I26">
-        <v>0.2732400342933767</v>
-      </c>
-      <c r="J26">
-        <v>0.2819049425702959</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M26">
-        <v>0.065874</v>
+        <v>0.1282723333333333</v>
       </c>
       <c r="N26">
-        <v>0.197622</v>
+        <v>0.384817</v>
       </c>
       <c r="O26">
-        <v>0.0003966584546967229</v>
+        <v>0.0007768761560581979</v>
       </c>
       <c r="P26">
-        <v>0.0003977972937537418</v>
+        <v>0.0007774772370156479</v>
       </c>
       <c r="Q26">
-        <v>0.295898234868</v>
+        <v>0.975882913736889</v>
       </c>
       <c r="R26">
-        <v>2.663084113812</v>
+        <v>8.782946223631999</v>
       </c>
       <c r="S26">
-        <v>0.0001083829697640904</v>
+        <v>0.0002957191989414138</v>
       </c>
       <c r="T26">
-        <v>0.0001121410232502677</v>
+        <v>0.0003257764556065374</v>
       </c>
     </row>
   </sheetData>
